--- a/02.Design Document/Bug_List.xlsx
+++ b/02.Design Document/Bug_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590F4C1D-DAD2-0A46-8F17-E01E4BAA870C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C679A073-C756-4344-A8A7-44BFBA297B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38280" windowHeight="21100" xr2:uid="{7E3708B7-2F03-7340-966D-388217F224A7}"/>
+    <workbookView xWindow="7120" yWindow="22700" windowWidth="26560" windowHeight="15800" xr2:uid="{7E3708B7-2F03-7340-966D-388217F224A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -224,6 +224,42 @@
 if ($admin === null) {
    //404 error
 }</t>
+  </si>
+  <si>
+    <t>Monthly Sale</t>
+  </si>
+  <si>
+    <t>Not show line between points.</t>
+  </si>
+  <si>
+    <t>CPPK</t>
+  </si>
+  <si>
+    <t>Flex in responsive</t>
+  </si>
+  <si>
+    <t>Monthly,Daily,Yearly</t>
+  </si>
+  <si>
+    <t>Adjust Tilte when responsive</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Show only date(2020/01/01 =&gt; 1)</t>
+  </si>
+  <si>
+    <t>Error: year labels was not show.</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>Set attive button related page</t>
+  </si>
+  <si>
+    <t>Button</t>
   </si>
 </sst>
 </file>
@@ -689,7 +725,9 @@
   </sheetPr>
   <dimension ref="A3:L501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1396,107 +1434,191 @@
       <c r="I27" s="18"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5">
+        <v>44575</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="18"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="5">
+        <v>44575</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="18"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="5">
+        <v>44575</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="18"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="5">
+        <v>44575</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="18"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="5">
+        <v>44575</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="18"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="5">
+        <v>44575</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="18"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="5">
+        <v>44575</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="18"/>
       <c r="J34" s="6"/>

--- a/02.Design Document/Bug_List.xlsx
+++ b/02.Design Document/Bug_List.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C679A073-C756-4344-A8A7-44BFBA297B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F5A00F-7835-CD41-8414-B281C4371DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="22700" windowWidth="26560" windowHeight="15800" xr2:uid="{7E3708B7-2F03-7340-966D-388217F224A7}"/>
+    <workbookView xWindow="6360" yWindow="22100" windowWidth="28620" windowHeight="15840" xr2:uid="{7E3708B7-2F03-7340-966D-388217F224A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug List" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bug List'!$A$3:$K$505</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -260,6 +263,48 @@
   </si>
   <si>
     <t>Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product </t>
+  </si>
+  <si>
+    <t>add old data when validation return</t>
+  </si>
+  <si>
+    <t>AMK</t>
+  </si>
+  <si>
+    <t>Product Type need required</t>
+  </si>
+  <si>
+    <t>Add hint for coin amount</t>
+  </si>
+  <si>
+    <t>Add hint for product name</t>
+  </si>
+  <si>
+    <t>Product Taste need required</t>
+  </si>
+  <si>
+    <t>Ingredient list need required</t>
+  </si>
+  <si>
+    <t>description need required</t>
+  </si>
+  <si>
+    <t>Avaliable need to checked in initial state</t>
+  </si>
+  <si>
+    <t>Taste and type can't save in database</t>
+  </si>
+  <si>
+    <t>set 0 MMK in amount at initial state</t>
+  </si>
+  <si>
+    <t>add back button</t>
+  </si>
+  <si>
+    <t>allow all file extension in choose file</t>
   </si>
 </sst>
 </file>
@@ -723,10 +768,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:L501"/>
+  <dimension ref="A3:L505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -812,7 +857,7 @@
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A68" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A72" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1623,182 +1668,326 @@
       <c r="I34" s="18"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="18"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="B36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="18"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="18"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="B38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="18"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="18"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="B40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="18"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="B41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="18"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="B42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="18"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="B43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="I43" s="18"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="B44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H44" s="6"/>
       <c r="I44" s="18"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="B45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="18"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="B46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="5">
+        <v>44581</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="18"/>
       <c r="J46" s="6"/>
@@ -1811,7 +2000,7 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="6"/>
@@ -1826,7 +2015,7 @@
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="6"/>
@@ -1841,7 +2030,7 @@
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="6"/>
@@ -1856,7 +2045,7 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="6"/>
@@ -1871,7 +2060,7 @@
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="6"/>
@@ -2135,7 +2324,7 @@
     </row>
     <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <f t="shared" ref="A69:A132" si="1">ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B69" s="4"/>
@@ -2150,7 +2339,7 @@
     </row>
     <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B70" s="4"/>
@@ -2165,7 +2354,7 @@
     </row>
     <row r="71" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B71" s="4"/>
@@ -2180,7 +2369,7 @@
     </row>
     <row r="72" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B72" s="4"/>
@@ -2195,7 +2384,7 @@
     </row>
     <row r="73" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A73:A136" si="1">ROW()-3</f>
         <v>70</v>
       </c>
       <c r="B73" s="4"/>
@@ -3095,7 +3284,7 @@
     </row>
     <row r="133" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <f t="shared" ref="A133:A196" si="2">ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="B133" s="4"/>
@@ -3110,7 +3299,7 @@
     </row>
     <row r="134" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="B134" s="4"/>
@@ -3125,7 +3314,7 @@
     </row>
     <row r="135" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="B135" s="4"/>
@@ -3140,7 +3329,7 @@
     </row>
     <row r="136" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="B136" s="4"/>
@@ -3155,7 +3344,7 @@
     </row>
     <row r="137" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A137:A200" si="2">ROW()-3</f>
         <v>134</v>
       </c>
       <c r="B137" s="4"/>
@@ -4055,7 +4244,7 @@
     </row>
     <row r="197" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <f t="shared" ref="A197:A260" si="3">ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="B197" s="4"/>
@@ -4070,7 +4259,7 @@
     </row>
     <row r="198" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="B198" s="4"/>
@@ -4085,7 +4274,7 @@
     </row>
     <row r="199" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="B199" s="4"/>
@@ -4100,7 +4289,7 @@
     </row>
     <row r="200" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>197</v>
       </c>
       <c r="B200" s="4"/>
@@ -4115,7 +4304,7 @@
     </row>
     <row r="201" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A201:A264" si="3">ROW()-3</f>
         <v>198</v>
       </c>
       <c r="B201" s="4"/>
@@ -5015,7 +5204,7 @@
     </row>
     <row r="261" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
-        <f t="shared" ref="A261:A324" si="4">ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
       <c r="B261" s="4"/>
@@ -5030,7 +5219,7 @@
     </row>
     <row r="262" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>259</v>
       </c>
       <c r="B262" s="4"/>
@@ -5045,7 +5234,7 @@
     </row>
     <row r="263" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="B263" s="4"/>
@@ -5060,7 +5249,7 @@
     </row>
     <row r="264" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>261</v>
       </c>
       <c r="B264" s="4"/>
@@ -5075,7 +5264,7 @@
     </row>
     <row r="265" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A265:A328" si="4">ROW()-3</f>
         <v>262</v>
       </c>
       <c r="B265" s="4"/>
@@ -5975,7 +6164,7 @@
     </row>
     <row r="325" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
-        <f t="shared" ref="A325:A388" si="5">ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>322</v>
       </c>
       <c r="B325" s="4"/>
@@ -5990,7 +6179,7 @@
     </row>
     <row r="326" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>323</v>
       </c>
       <c r="B326" s="4"/>
@@ -6005,7 +6194,7 @@
     </row>
     <row r="327" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
       <c r="B327" s="4"/>
@@ -6020,7 +6209,7 @@
     </row>
     <row r="328" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>325</v>
       </c>
       <c r="B328" s="4"/>
@@ -6035,7 +6224,7 @@
     </row>
     <row r="329" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A329:A392" si="5">ROW()-3</f>
         <v>326</v>
       </c>
       <c r="B329" s="4"/>
@@ -6935,7 +7124,7 @@
     </row>
     <row r="389" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
-        <f t="shared" ref="A389:A452" si="6">ROW()-3</f>
+        <f t="shared" si="5"/>
         <v>386</v>
       </c>
       <c r="B389" s="4"/>
@@ -6950,7 +7139,7 @@
     </row>
     <row r="390" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>387</v>
       </c>
       <c r="B390" s="4"/>
@@ -6965,7 +7154,7 @@
     </row>
     <row r="391" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>388</v>
       </c>
       <c r="B391" s="4"/>
@@ -6980,7 +7169,7 @@
     </row>
     <row r="392" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>389</v>
       </c>
       <c r="B392" s="4"/>
@@ -6995,7 +7184,7 @@
     </row>
     <row r="393" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A393:A456" si="6">ROW()-3</f>
         <v>390</v>
       </c>
       <c r="B393" s="4"/>
@@ -7895,7 +8084,7 @@
     </row>
     <row r="453" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A453" s="4">
-        <f t="shared" ref="A453:A501" si="7">ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="B453" s="4"/>
@@ -7910,7 +8099,7 @@
     </row>
     <row r="454" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A454" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>451</v>
       </c>
       <c r="B454" s="4"/>
@@ -7925,7 +8114,7 @@
     </row>
     <row r="455" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A455" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>452</v>
       </c>
       <c r="B455" s="4"/>
@@ -7940,7 +8129,7 @@
     </row>
     <row r="456" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A456" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>453</v>
       </c>
       <c r="B456" s="4"/>
@@ -7955,7 +8144,7 @@
     </row>
     <row r="457" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A457" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A457:A505" si="7">ROW()-3</f>
         <v>454</v>
       </c>
       <c r="B457" s="4"/>
@@ -8628,7 +8817,68 @@
       <c r="I501" s="18"/>
       <c r="J501" s="6"/>
     </row>
+    <row r="502" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A502" s="4">
+        <f t="shared" si="7"/>
+        <v>499</v>
+      </c>
+      <c r="B502" s="4"/>
+      <c r="C502" s="4"/>
+      <c r="D502" s="9"/>
+      <c r="E502" s="4"/>
+      <c r="F502" s="3"/>
+      <c r="G502" s="3"/>
+      <c r="H502" s="6"/>
+      <c r="I502" s="18"/>
+      <c r="J502" s="6"/>
+    </row>
+    <row r="503" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A503" s="4">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="B503" s="4"/>
+      <c r="C503" s="4"/>
+      <c r="D503" s="9"/>
+      <c r="E503" s="4"/>
+      <c r="F503" s="3"/>
+      <c r="G503" s="3"/>
+      <c r="H503" s="6"/>
+      <c r="I503" s="18"/>
+      <c r="J503" s="6"/>
+    </row>
+    <row r="504" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A504" s="4">
+        <f t="shared" si="7"/>
+        <v>501</v>
+      </c>
+      <c r="B504" s="4"/>
+      <c r="C504" s="4"/>
+      <c r="D504" s="9"/>
+      <c r="E504" s="4"/>
+      <c r="F504" s="3"/>
+      <c r="G504" s="3"/>
+      <c r="H504" s="6"/>
+      <c r="I504" s="18"/>
+      <c r="J504" s="6"/>
+    </row>
+    <row r="505" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A505" s="4">
+        <f t="shared" si="7"/>
+        <v>502</v>
+      </c>
+      <c r="B505" s="4"/>
+      <c r="C505" s="4"/>
+      <c r="D505" s="9"/>
+      <c r="E505" s="4"/>
+      <c r="F505" s="3"/>
+      <c r="G505" s="3"/>
+      <c r="H505" s="6"/>
+      <c r="I505" s="18"/>
+      <c r="J505" s="6"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A3:K505" xr:uid="{E55411CC-4136-8446-A086-03473F90E85C}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="32" fitToHeight="15" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/02.Design Document/Bug_List.xlsx
+++ b/02.Design Document/Bug_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBDD4E3-2288-DC41-87F4-3C19882E913B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FB390-08F0-294D-B921-EEC63D439A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="22100" windowWidth="28620" windowHeight="15760" xr2:uid="{7E3708B7-2F03-7340-966D-388217F224A7}"/>
+    <workbookView xWindow="6220" yWindow="22100" windowWidth="28620" windowHeight="15760" activeTab="5" xr2:uid="{7E3708B7-2F03-7340-966D-388217F224A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard(Admin)" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="189">
   <si>
     <t>No</t>
   </si>
@@ -627,6 +627,15 @@
   <si>
     <t>Remove delete button at Decision Note</t>
   </si>
+  <si>
+    <t>Login manage</t>
+  </si>
+  <si>
+    <t>hash md5 at password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add checkbox for ad valid </t>
+  </si>
 </sst>
 </file>
 
@@ -1128,7 +1137,7 @@
   </sheetPr>
   <dimension ref="A3:L476"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37738,7 +37747,9 @@
   </sheetPr>
   <dimension ref="A3:L489"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38665,26 +38676,52 @@
       <c r="I37" s="18"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+    <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="21">
+        <v>44590</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="18"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="21">
+        <v>44590</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="18"/>
       <c r="J39" s="6"/>
@@ -38738,10 +38775,7 @@
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
+      <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="9"/>
@@ -38753,10 +38787,7 @@
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
+      <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="9"/>
@@ -38768,10 +38799,7 @@
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
+      <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="9"/>
@@ -38783,10 +38811,7 @@
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
+      <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="9"/>
@@ -38798,10 +38823,7 @@
       <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
+      <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="9"/>
@@ -38813,10 +38835,7 @@
       <c r="J48" s="6"/>
     </row>
     <row r="49" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="9"/>
@@ -38828,10 +38847,7 @@
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
+      <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="9"/>
@@ -38843,10 +38859,7 @@
       <c r="J50" s="6"/>
     </row>
     <row r="51" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
+      <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="9"/>
@@ -38858,10 +38871,7 @@
       <c r="J51" s="6"/>
     </row>
     <row r="52" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
+      <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="9"/>
@@ -38873,10 +38883,7 @@
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+      <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="9"/>
@@ -38888,10 +38895,7 @@
       <c r="J53" s="6"/>
     </row>
     <row r="54" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="9"/>
@@ -38903,10 +38907,7 @@
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
+      <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="9"/>
@@ -38918,10 +38919,7 @@
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
+      <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="9"/>
@@ -38933,10 +38931,7 @@
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <f t="shared" ref="A57:A120" si="1">ROW()-3</f>
-        <v>54</v>
-      </c>
+      <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="9"/>
@@ -38948,10 +38943,7 @@
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
+      <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="9"/>
@@ -38963,10 +38955,7 @@
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
+      <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="9"/>
@@ -38978,10 +38967,7 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
+      <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="9"/>
@@ -38993,10 +38979,7 @@
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="9"/>
@@ -39008,10 +38991,7 @@
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="9"/>
@@ -39023,10 +39003,7 @@
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
+      <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="9"/>
@@ -39038,10 +39015,7 @@
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
+      <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="9"/>
@@ -39053,10 +39027,7 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
+      <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="9"/>
@@ -39068,10 +39039,7 @@
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
+      <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="9"/>
@@ -39083,10 +39051,7 @@
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
+      <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="9"/>
@@ -39098,10 +39063,7 @@
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
+      <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="9"/>
@@ -39113,10 +39075,7 @@
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
+      <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="9"/>
@@ -39128,10 +39087,7 @@
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
+      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="9"/>
@@ -39143,10 +39099,7 @@
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
+      <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="9"/>
@@ -39158,10 +39111,7 @@
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
+      <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="9"/>
@@ -39173,10 +39123,7 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
+      <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="9"/>
@@ -39188,10 +39135,7 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
+      <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="9"/>
@@ -39203,10 +39147,7 @@
       <c r="J74" s="6"/>
     </row>
     <row r="75" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
+      <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="9"/>
@@ -39218,10 +39159,7 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
+      <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="9"/>
@@ -39233,10 +39171,7 @@
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
+      <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="9"/>
@@ -39248,10 +39183,7 @@
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
+      <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="9"/>
@@ -39263,10 +39195,7 @@
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
+      <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="9"/>
@@ -39278,10 +39207,7 @@
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
+      <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="9"/>
@@ -39293,10 +39219,7 @@
       <c r="J80" s="6"/>
     </row>
     <row r="81" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
+      <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="9"/>
@@ -39308,10 +39231,7 @@
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
+      <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="9"/>
@@ -39323,10 +39243,7 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
+      <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="9"/>
@@ -39338,10 +39255,7 @@
       <c r="J83" s="6"/>
     </row>
     <row r="84" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
+      <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="9"/>
@@ -39353,10 +39267,7 @@
       <c r="J84" s="6"/>
     </row>
     <row r="85" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
+      <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="9"/>
@@ -39368,10 +39279,7 @@
       <c r="J85" s="6"/>
     </row>
     <row r="86" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
+      <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="9"/>
@@ -39383,10 +39291,7 @@
       <c r="J86" s="6"/>
     </row>
     <row r="87" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
+      <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="9"/>
@@ -39398,10 +39303,7 @@
       <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
+      <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="9"/>
@@ -39413,10 +39315,7 @@
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
+      <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="9"/>
@@ -39428,10 +39327,7 @@
       <c r="J89" s="6"/>
     </row>
     <row r="90" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
+      <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="9"/>
@@ -39443,10 +39339,7 @@
       <c r="J90" s="6"/>
     </row>
     <row r="91" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
+      <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="9"/>
@@ -39458,10 +39351,7 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
+      <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="9"/>
@@ -39473,10 +39363,7 @@
       <c r="J92" s="6"/>
     </row>
     <row r="93" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
+      <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="9"/>
@@ -39488,10 +39375,7 @@
       <c r="J93" s="6"/>
     </row>
     <row r="94" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
+      <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="9"/>
@@ -39503,10 +39387,7 @@
       <c r="J94" s="6"/>
     </row>
     <row r="95" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
+      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="9"/>
@@ -39518,10 +39399,7 @@
       <c r="J95" s="6"/>
     </row>
     <row r="96" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
+      <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="9"/>
@@ -39533,10 +39411,7 @@
       <c r="J96" s="6"/>
     </row>
     <row r="97" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
+      <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="9"/>
@@ -39548,10 +39423,7 @@
       <c r="J97" s="6"/>
     </row>
     <row r="98" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
+      <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="9"/>
@@ -39563,10 +39435,7 @@
       <c r="J98" s="6"/>
     </row>
     <row r="99" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="9"/>
@@ -39578,10 +39447,7 @@
       <c r="J99" s="6"/>
     </row>
     <row r="100" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
+      <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="9"/>
@@ -39593,10 +39459,7 @@
       <c r="J100" s="6"/>
     </row>
     <row r="101" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
+      <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="9"/>
@@ -39608,10 +39471,7 @@
       <c r="J101" s="6"/>
     </row>
     <row r="102" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
+      <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="9"/>
@@ -39623,10 +39483,7 @@
       <c r="J102" s="6"/>
     </row>
     <row r="103" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="9"/>
@@ -39638,10 +39495,7 @@
       <c r="J103" s="6"/>
     </row>
     <row r="104" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A104" s="4">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
+      <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="9"/>
@@ -39653,10 +39507,7 @@
       <c r="J104" s="6"/>
     </row>
     <row r="105" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
+      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="9"/>
@@ -39668,10 +39519,7 @@
       <c r="J105" s="6"/>
     </row>
     <row r="106" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
+      <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="9"/>
@@ -39683,10 +39531,7 @@
       <c r="J106" s="6"/>
     </row>
     <row r="107" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
+      <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="9"/>
@@ -39698,10 +39543,7 @@
       <c r="J107" s="6"/>
     </row>
     <row r="108" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A108" s="4">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
+      <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="9"/>
@@ -39713,10 +39555,7 @@
       <c r="J108" s="6"/>
     </row>
     <row r="109" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
+      <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="9"/>
@@ -39728,10 +39567,7 @@
       <c r="J109" s="6"/>
     </row>
     <row r="110" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
+      <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="9"/>
@@ -39743,10 +39579,7 @@
       <c r="J110" s="6"/>
     </row>
     <row r="111" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
+      <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="9"/>
@@ -39758,10 +39591,7 @@
       <c r="J111" s="6"/>
     </row>
     <row r="112" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A112" s="4">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
+      <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="9"/>
@@ -39773,10 +39603,7 @@
       <c r="J112" s="6"/>
     </row>
     <row r="113" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A113" s="4">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
+      <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="9"/>
@@ -39788,10 +39615,7 @@
       <c r="J113" s="6"/>
     </row>
     <row r="114" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A114" s="4">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
+      <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="9"/>
@@ -39803,10 +39627,7 @@
       <c r="J114" s="6"/>
     </row>
     <row r="115" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A115" s="4">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
+      <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="9"/>
@@ -39818,10 +39639,7 @@
       <c r="J115" s="6"/>
     </row>
     <row r="116" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A116" s="4">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
+      <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="9"/>
@@ -39833,10 +39651,7 @@
       <c r="J116" s="6"/>
     </row>
     <row r="117" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A117" s="4">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
+      <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="9"/>
@@ -39848,10 +39663,7 @@
       <c r="J117" s="6"/>
     </row>
     <row r="118" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A118" s="4">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
+      <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="9"/>
@@ -39863,10 +39675,7 @@
       <c r="J118" s="6"/>
     </row>
     <row r="119" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A119" s="4">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
+      <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="9"/>
@@ -39878,10 +39687,7 @@
       <c r="J119" s="6"/>
     </row>
     <row r="120" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A120" s="4">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
+      <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="9"/>
@@ -39893,10 +39699,7 @@
       <c r="J120" s="6"/>
     </row>
     <row r="121" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A121" s="4">
-        <f t="shared" ref="A121:A184" si="2">ROW()-3</f>
-        <v>118</v>
-      </c>
+      <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="9"/>
@@ -39908,10 +39711,7 @@
       <c r="J121" s="6"/>
     </row>
     <row r="122" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A122" s="4">
-        <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
+      <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="9"/>
@@ -39923,10 +39723,7 @@
       <c r="J122" s="6"/>
     </row>
     <row r="123" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A123" s="4">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
+      <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="9"/>
@@ -39938,10 +39735,7 @@
       <c r="J123" s="6"/>
     </row>
     <row r="124" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A124" s="4">
-        <f t="shared" si="2"/>
-        <v>121</v>
-      </c>
+      <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="9"/>
@@ -39953,10 +39747,7 @@
       <c r="J124" s="6"/>
     </row>
     <row r="125" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A125" s="4">
-        <f t="shared" si="2"/>
-        <v>122</v>
-      </c>
+      <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="9"/>
@@ -39968,10 +39759,7 @@
       <c r="J125" s="6"/>
     </row>
     <row r="126" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
-        <f t="shared" si="2"/>
-        <v>123</v>
-      </c>
+      <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="9"/>
@@ -39983,10 +39771,7 @@
       <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A127" s="4">
-        <f t="shared" si="2"/>
-        <v>124</v>
-      </c>
+      <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="9"/>
@@ -39998,10 +39783,7 @@
       <c r="J127" s="6"/>
     </row>
     <row r="128" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A128" s="4">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
+      <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="9"/>
@@ -40013,10 +39795,7 @@
       <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A129" s="4">
-        <f t="shared" si="2"/>
-        <v>126</v>
-      </c>
+      <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="9"/>
@@ -40028,10 +39807,7 @@
       <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A130" s="4">
-        <f t="shared" si="2"/>
-        <v>127</v>
-      </c>
+      <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="9"/>
@@ -40043,10 +39819,7 @@
       <c r="J130" s="6"/>
     </row>
     <row r="131" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A131" s="4">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
+      <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="9"/>
@@ -40058,10 +39831,7 @@
       <c r="J131" s="6"/>
     </row>
     <row r="132" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A132" s="4">
-        <f t="shared" si="2"/>
-        <v>129</v>
-      </c>
+      <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="9"/>
@@ -40073,10 +39843,7 @@
       <c r="J132" s="6"/>
     </row>
     <row r="133" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A133" s="4">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
+      <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="9"/>
@@ -40088,10 +39855,7 @@
       <c r="J133" s="6"/>
     </row>
     <row r="134" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A134" s="4">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
+      <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="9"/>
@@ -40103,10 +39867,7 @@
       <c r="J134" s="6"/>
     </row>
     <row r="135" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A135" s="4">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
+      <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="9"/>
@@ -40118,10 +39879,7 @@
       <c r="J135" s="6"/>
     </row>
     <row r="136" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A136" s="4">
-        <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
+      <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="9"/>
@@ -40133,10 +39891,7 @@
       <c r="J136" s="6"/>
     </row>
     <row r="137" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A137" s="4">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
+      <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="9"/>
@@ -40148,10 +39903,7 @@
       <c r="J137" s="6"/>
     </row>
     <row r="138" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A138" s="4">
-        <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
+      <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="9"/>
@@ -40163,10 +39915,7 @@
       <c r="J138" s="6"/>
     </row>
     <row r="139" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A139" s="4">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
+      <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="9"/>
@@ -40178,10 +39927,7 @@
       <c r="J139" s="6"/>
     </row>
     <row r="140" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A140" s="4">
-        <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
+      <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="9"/>
@@ -40193,10 +39939,7 @@
       <c r="J140" s="6"/>
     </row>
     <row r="141" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A141" s="4">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
+      <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="9"/>
@@ -40208,10 +39951,7 @@
       <c r="J141" s="6"/>
     </row>
     <row r="142" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A142" s="4">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
+      <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="9"/>
@@ -40223,10 +39963,7 @@
       <c r="J142" s="6"/>
     </row>
     <row r="143" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A143" s="4">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
+      <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="9"/>
@@ -40238,10 +39975,7 @@
       <c r="J143" s="6"/>
     </row>
     <row r="144" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A144" s="4">
-        <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
+      <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="9"/>
@@ -40253,10 +39987,7 @@
       <c r="J144" s="6"/>
     </row>
     <row r="145" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A145" s="4">
-        <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
+      <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="9"/>
@@ -40268,10 +39999,7 @@
       <c r="J145" s="6"/>
     </row>
     <row r="146" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
+      <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="9"/>
@@ -40283,10 +40011,7 @@
       <c r="J146" s="6"/>
     </row>
     <row r="147" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
+      <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="9"/>
@@ -40298,10 +40023,7 @@
       <c r="J147" s="6"/>
     </row>
     <row r="148" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
+      <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="9"/>
@@ -40313,10 +40035,7 @@
       <c r="J148" s="6"/>
     </row>
     <row r="149" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
-        <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
+      <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="9"/>
@@ -40328,10 +40047,7 @@
       <c r="J149" s="6"/>
     </row>
     <row r="150" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
-        <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
+      <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="9"/>
@@ -40343,10 +40059,7 @@
       <c r="J150" s="6"/>
     </row>
     <row r="151" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
+      <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="9"/>
@@ -40358,10 +40071,7 @@
       <c r="J151" s="6"/>
     </row>
     <row r="152" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
-        <f t="shared" si="2"/>
-        <v>149</v>
-      </c>
+      <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="9"/>
@@ -40373,10 +40083,7 @@
       <c r="J152" s="6"/>
     </row>
     <row r="153" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
+      <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="9"/>
@@ -40388,10 +40095,7 @@
       <c r="J153" s="6"/>
     </row>
     <row r="154" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
-        <f t="shared" si="2"/>
-        <v>151</v>
-      </c>
+      <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="9"/>
@@ -40403,10 +40107,7 @@
       <c r="J154" s="6"/>
     </row>
     <row r="155" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
-        <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
+      <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="9"/>
@@ -40418,10 +40119,7 @@
       <c r="J155" s="6"/>
     </row>
     <row r="156" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
+      <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="9"/>
@@ -40433,10 +40131,7 @@
       <c r="J156" s="6"/>
     </row>
     <row r="157" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
-        <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
+      <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="9"/>
@@ -40448,10 +40143,7 @@
       <c r="J157" s="6"/>
     </row>
     <row r="158" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
-        <f t="shared" si="2"/>
-        <v>155</v>
-      </c>
+      <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="9"/>
@@ -40463,10 +40155,7 @@
       <c r="J158" s="6"/>
     </row>
     <row r="159" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
-        <f t="shared" si="2"/>
-        <v>156</v>
-      </c>
+      <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="9"/>
@@ -40478,10 +40167,7 @@
       <c r="J159" s="6"/>
     </row>
     <row r="160" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
-        <f t="shared" si="2"/>
-        <v>157</v>
-      </c>
+      <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="9"/>
@@ -40493,10 +40179,7 @@
       <c r="J160" s="6"/>
     </row>
     <row r="161" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
-        <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
+      <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="9"/>
@@ -40508,10 +40191,7 @@
       <c r="J161" s="6"/>
     </row>
     <row r="162" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
-        <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
+      <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="9"/>
@@ -40523,10 +40203,7 @@
       <c r="J162" s="6"/>
     </row>
     <row r="163" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
+      <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="9"/>
@@ -40538,10 +40215,7 @@
       <c r="J163" s="6"/>
     </row>
     <row r="164" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A164" s="4">
-        <f t="shared" si="2"/>
-        <v>161</v>
-      </c>
+      <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="9"/>
@@ -40553,10 +40227,7 @@
       <c r="J164" s="6"/>
     </row>
     <row r="165" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A165" s="4">
-        <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
+      <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="9"/>
@@ -40568,10 +40239,7 @@
       <c r="J165" s="6"/>
     </row>
     <row r="166" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A166" s="4">
-        <f t="shared" si="2"/>
-        <v>163</v>
-      </c>
+      <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="9"/>
@@ -40583,10 +40251,7 @@
       <c r="J166" s="6"/>
     </row>
     <row r="167" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A167" s="4">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
+      <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="9"/>
@@ -40598,10 +40263,7 @@
       <c r="J167" s="6"/>
     </row>
     <row r="168" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A168" s="4">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
+      <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="9"/>
@@ -40613,10 +40275,7 @@
       <c r="J168" s="6"/>
     </row>
     <row r="169" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A169" s="4">
-        <f t="shared" si="2"/>
-        <v>166</v>
-      </c>
+      <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="9"/>
@@ -40628,10 +40287,7 @@
       <c r="J169" s="6"/>
     </row>
     <row r="170" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A170" s="4">
-        <f t="shared" si="2"/>
-        <v>167</v>
-      </c>
+      <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="9"/>
@@ -40643,10 +40299,7 @@
       <c r="J170" s="6"/>
     </row>
     <row r="171" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A171" s="4">
-        <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
+      <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="9"/>
@@ -40658,10 +40311,7 @@
       <c r="J171" s="6"/>
     </row>
     <row r="172" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A172" s="4">
-        <f t="shared" si="2"/>
-        <v>169</v>
-      </c>
+      <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="9"/>
@@ -40673,10 +40323,7 @@
       <c r="J172" s="6"/>
     </row>
     <row r="173" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A173" s="4">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
+      <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="9"/>
@@ -40689,7 +40336,7 @@
     </row>
     <row r="174" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A121:A184" si="1">ROW()-3</f>
         <v>171</v>
       </c>
       <c r="B174" s="4"/>
@@ -40704,7 +40351,7 @@
     </row>
     <row r="175" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="B175" s="4"/>
@@ -40719,7 +40366,7 @@
     </row>
     <row r="176" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>173</v>
       </c>
       <c r="B176" s="4"/>
@@ -40734,7 +40381,7 @@
     </row>
     <row r="177" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>174</v>
       </c>
       <c r="B177" s="4"/>
@@ -40749,7 +40396,7 @@
     </row>
     <row r="178" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="B178" s="4"/>
@@ -40764,7 +40411,7 @@
     </row>
     <row r="179" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
       <c r="B179" s="4"/>
@@ -40779,7 +40426,7 @@
     </row>
     <row r="180" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
       <c r="B180" s="4"/>
@@ -40794,7 +40441,7 @@
     </row>
     <row r="181" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>178</v>
       </c>
       <c r="B181" s="4"/>
@@ -40809,7 +40456,7 @@
     </row>
     <row r="182" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>179</v>
       </c>
       <c r="B182" s="4"/>
@@ -40824,7 +40471,7 @@
     </row>
     <row r="183" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="B183" s="4"/>
@@ -40839,7 +40486,7 @@
     </row>
     <row r="184" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>181</v>
       </c>
       <c r="B184" s="4"/>
@@ -40854,7 +40501,7 @@
     </row>
     <row r="185" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <f t="shared" ref="A185:A248" si="3">ROW()-3</f>
+        <f t="shared" ref="A185:A248" si="2">ROW()-3</f>
         <v>182</v>
       </c>
       <c r="B185" s="4"/>
@@ -40869,7 +40516,7 @@
     </row>
     <row r="186" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B186" s="4"/>
@@ -40884,7 +40531,7 @@
     </row>
     <row r="187" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B187" s="4"/>
@@ -40899,7 +40546,7 @@
     </row>
     <row r="188" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="B188" s="4"/>
@@ -40914,7 +40561,7 @@
     </row>
     <row r="189" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B189" s="4"/>
@@ -40929,7 +40576,7 @@
     </row>
     <row r="190" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="B190" s="4"/>
@@ -40944,7 +40591,7 @@
     </row>
     <row r="191" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="B191" s="4"/>
@@ -40959,7 +40606,7 @@
     </row>
     <row r="192" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B192" s="4"/>
@@ -40974,7 +40621,7 @@
     </row>
     <row r="193" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B193" s="4"/>
@@ -40989,7 +40636,7 @@
     </row>
     <row r="194" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="B194" s="4"/>
@@ -41004,7 +40651,7 @@
     </row>
     <row r="195" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="B195" s="4"/>
@@ -41019,7 +40666,7 @@
     </row>
     <row r="196" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="B196" s="4"/>
@@ -41034,7 +40681,7 @@
     </row>
     <row r="197" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="B197" s="4"/>
@@ -41049,7 +40696,7 @@
     </row>
     <row r="198" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="B198" s="4"/>
@@ -41064,7 +40711,7 @@
     </row>
     <row r="199" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="B199" s="4"/>
@@ -41079,7 +40726,7 @@
     </row>
     <row r="200" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>197</v>
       </c>
       <c r="B200" s="4"/>
@@ -41094,7 +40741,7 @@
     </row>
     <row r="201" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="B201" s="4"/>
@@ -41109,7 +40756,7 @@
     </row>
     <row r="202" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>199</v>
       </c>
       <c r="B202" s="4"/>
@@ -41124,7 +40771,7 @@
     </row>
     <row r="203" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="B203" s="4"/>
@@ -41139,7 +40786,7 @@
     </row>
     <row r="204" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
       <c r="B204" s="4"/>
@@ -41154,7 +40801,7 @@
     </row>
     <row r="205" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>202</v>
       </c>
       <c r="B205" s="4"/>
@@ -41169,7 +40816,7 @@
     </row>
     <row r="206" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>203</v>
       </c>
       <c r="B206" s="4"/>
@@ -41184,7 +40831,7 @@
     </row>
     <row r="207" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>204</v>
       </c>
       <c r="B207" s="4"/>
@@ -41199,7 +40846,7 @@
     </row>
     <row r="208" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
       <c r="B208" s="4"/>
@@ -41214,7 +40861,7 @@
     </row>
     <row r="209" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>206</v>
       </c>
       <c r="B209" s="4"/>
@@ -41229,7 +40876,7 @@
     </row>
     <row r="210" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="B210" s="4"/>
@@ -41244,7 +40891,7 @@
     </row>
     <row r="211" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="B211" s="4"/>
@@ -41259,7 +40906,7 @@
     </row>
     <row r="212" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="B212" s="4"/>
@@ -41274,7 +40921,7 @@
     </row>
     <row r="213" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="B213" s="4"/>
@@ -41289,7 +40936,7 @@
     </row>
     <row r="214" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>211</v>
       </c>
       <c r="B214" s="4"/>
@@ -41304,7 +40951,7 @@
     </row>
     <row r="215" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>212</v>
       </c>
       <c r="B215" s="4"/>
@@ -41319,7 +40966,7 @@
     </row>
     <row r="216" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>213</v>
       </c>
       <c r="B216" s="4"/>
@@ -41334,7 +40981,7 @@
     </row>
     <row r="217" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="B217" s="4"/>
@@ -41349,7 +40996,7 @@
     </row>
     <row r="218" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
       <c r="B218" s="4"/>
@@ -41364,7 +41011,7 @@
     </row>
     <row r="219" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="B219" s="4"/>
@@ -41379,7 +41026,7 @@
     </row>
     <row r="220" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
       <c r="B220" s="4"/>
@@ -41394,7 +41041,7 @@
     </row>
     <row r="221" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
       <c r="B221" s="4"/>
@@ -41409,7 +41056,7 @@
     </row>
     <row r="222" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>219</v>
       </c>
       <c r="B222" s="4"/>
@@ -41424,7 +41071,7 @@
     </row>
     <row r="223" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="B223" s="4"/>
@@ -41439,7 +41086,7 @@
     </row>
     <row r="224" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>221</v>
       </c>
       <c r="B224" s="4"/>
@@ -41454,7 +41101,7 @@
     </row>
     <row r="225" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="B225" s="4"/>
@@ -41469,7 +41116,7 @@
     </row>
     <row r="226" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>223</v>
       </c>
       <c r="B226" s="4"/>
@@ -41484,7 +41131,7 @@
     </row>
     <row r="227" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
       <c r="B227" s="4"/>
@@ -41499,7 +41146,7 @@
     </row>
     <row r="228" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="B228" s="4"/>
@@ -41514,7 +41161,7 @@
     </row>
     <row r="229" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>226</v>
       </c>
       <c r="B229" s="4"/>
@@ -41529,7 +41176,7 @@
     </row>
     <row r="230" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>227</v>
       </c>
       <c r="B230" s="4"/>
@@ -41544,7 +41191,7 @@
     </row>
     <row r="231" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>228</v>
       </c>
       <c r="B231" s="4"/>
@@ -41559,7 +41206,7 @@
     </row>
     <row r="232" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>229</v>
       </c>
       <c r="B232" s="4"/>
@@ -41574,7 +41221,7 @@
     </row>
     <row r="233" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="B233" s="4"/>
@@ -41589,7 +41236,7 @@
     </row>
     <row r="234" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>231</v>
       </c>
       <c r="B234" s="4"/>
@@ -41604,7 +41251,7 @@
     </row>
     <row r="235" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
       <c r="B235" s="4"/>
@@ -41619,7 +41266,7 @@
     </row>
     <row r="236" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>233</v>
       </c>
       <c r="B236" s="4"/>
@@ -41634,7 +41281,7 @@
     </row>
     <row r="237" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="B237" s="4"/>
@@ -41649,7 +41296,7 @@
     </row>
     <row r="238" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>235</v>
       </c>
       <c r="B238" s="4"/>
@@ -41664,7 +41311,7 @@
     </row>
     <row r="239" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>236</v>
       </c>
       <c r="B239" s="4"/>
@@ -41679,7 +41326,7 @@
     </row>
     <row r="240" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>237</v>
       </c>
       <c r="B240" s="4"/>
@@ -41694,7 +41341,7 @@
     </row>
     <row r="241" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="B241" s="4"/>
@@ -41709,7 +41356,7 @@
     </row>
     <row r="242" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>239</v>
       </c>
       <c r="B242" s="4"/>
@@ -41724,7 +41371,7 @@
     </row>
     <row r="243" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="B243" s="4"/>
@@ -41739,7 +41386,7 @@
     </row>
     <row r="244" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>241</v>
       </c>
       <c r="B244" s="4"/>
@@ -41754,7 +41401,7 @@
     </row>
     <row r="245" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
       <c r="B245" s="4"/>
@@ -41769,7 +41416,7 @@
     </row>
     <row r="246" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>243</v>
       </c>
       <c r="B246" s="4"/>
@@ -41784,7 +41431,7 @@
     </row>
     <row r="247" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="B247" s="4"/>
@@ -41799,7 +41446,7 @@
     </row>
     <row r="248" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>245</v>
       </c>
       <c r="B248" s="4"/>
@@ -41814,7 +41461,7 @@
     </row>
     <row r="249" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
-        <f t="shared" ref="A249:A312" si="4">ROW()-3</f>
+        <f t="shared" ref="A249:A312" si="3">ROW()-3</f>
         <v>246</v>
       </c>
       <c r="B249" s="4"/>
@@ -41829,7 +41476,7 @@
     </row>
     <row r="250" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="B250" s="4"/>
@@ -41844,7 +41491,7 @@
     </row>
     <row r="251" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="B251" s="4"/>
@@ -41859,7 +41506,7 @@
     </row>
     <row r="252" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="B252" s="4"/>
@@ -41874,7 +41521,7 @@
     </row>
     <row r="253" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B253" s="4"/>
@@ -41889,7 +41536,7 @@
     </row>
     <row r="254" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B254" s="4"/>
@@ -41904,7 +41551,7 @@
     </row>
     <row r="255" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="B255" s="4"/>
@@ -41919,7 +41566,7 @@
     </row>
     <row r="256" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="B256" s="4"/>
@@ -41934,7 +41581,7 @@
     </row>
     <row r="257" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="B257" s="4"/>
@@ -41949,7 +41596,7 @@
     </row>
     <row r="258" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="B258" s="4"/>
@@ -41964,7 +41611,7 @@
     </row>
     <row r="259" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="B259" s="4"/>
@@ -41979,7 +41626,7 @@
     </row>
     <row r="260" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="B260" s="4"/>
@@ -41994,7 +41641,7 @@
     </row>
     <row r="261" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
       <c r="B261" s="4"/>
@@ -42009,7 +41656,7 @@
     </row>
     <row r="262" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>259</v>
       </c>
       <c r="B262" s="4"/>
@@ -42024,7 +41671,7 @@
     </row>
     <row r="263" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="B263" s="4"/>
@@ -42039,7 +41686,7 @@
     </row>
     <row r="264" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>261</v>
       </c>
       <c r="B264" s="4"/>
@@ -42054,7 +41701,7 @@
     </row>
     <row r="265" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>262</v>
       </c>
       <c r="B265" s="4"/>
@@ -42069,7 +41716,7 @@
     </row>
     <row r="266" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>263</v>
       </c>
       <c r="B266" s="4"/>
@@ -42084,7 +41731,7 @@
     </row>
     <row r="267" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>264</v>
       </c>
       <c r="B267" s="4"/>
@@ -42099,7 +41746,7 @@
     </row>
     <row r="268" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>265</v>
       </c>
       <c r="B268" s="4"/>
@@ -42114,7 +41761,7 @@
     </row>
     <row r="269" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>266</v>
       </c>
       <c r="B269" s="4"/>
@@ -42129,7 +41776,7 @@
     </row>
     <row r="270" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>267</v>
       </c>
       <c r="B270" s="4"/>
@@ -42144,7 +41791,7 @@
     </row>
     <row r="271" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>268</v>
       </c>
       <c r="B271" s="4"/>
@@ -42159,7 +41806,7 @@
     </row>
     <row r="272" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>269</v>
       </c>
       <c r="B272" s="4"/>
@@ -42174,7 +41821,7 @@
     </row>
     <row r="273" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="B273" s="4"/>
@@ -42189,7 +41836,7 @@
     </row>
     <row r="274" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>271</v>
       </c>
       <c r="B274" s="4"/>
@@ -42204,7 +41851,7 @@
     </row>
     <row r="275" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>272</v>
       </c>
       <c r="B275" s="4"/>
@@ -42219,7 +41866,7 @@
     </row>
     <row r="276" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>273</v>
       </c>
       <c r="B276" s="4"/>
@@ -42234,7 +41881,7 @@
     </row>
     <row r="277" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>274</v>
       </c>
       <c r="B277" s="4"/>
@@ -42249,7 +41896,7 @@
     </row>
     <row r="278" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>275</v>
       </c>
       <c r="B278" s="4"/>
@@ -42264,7 +41911,7 @@
     </row>
     <row r="279" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>276</v>
       </c>
       <c r="B279" s="4"/>
@@ -42279,7 +41926,7 @@
     </row>
     <row r="280" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>277</v>
       </c>
       <c r="B280" s="4"/>
@@ -42294,7 +41941,7 @@
     </row>
     <row r="281" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>278</v>
       </c>
       <c r="B281" s="4"/>
@@ -42309,7 +41956,7 @@
     </row>
     <row r="282" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>279</v>
       </c>
       <c r="B282" s="4"/>
@@ -42324,7 +41971,7 @@
     </row>
     <row r="283" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="B283" s="4"/>
@@ -42339,7 +41986,7 @@
     </row>
     <row r="284" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>281</v>
       </c>
       <c r="B284" s="4"/>
@@ -42354,7 +42001,7 @@
     </row>
     <row r="285" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>282</v>
       </c>
       <c r="B285" s="4"/>
@@ -42369,7 +42016,7 @@
     </row>
     <row r="286" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>283</v>
       </c>
       <c r="B286" s="4"/>
@@ -42384,7 +42031,7 @@
     </row>
     <row r="287" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>284</v>
       </c>
       <c r="B287" s="4"/>
@@ -42399,7 +42046,7 @@
     </row>
     <row r="288" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>285</v>
       </c>
       <c r="B288" s="4"/>
@@ -42414,7 +42061,7 @@
     </row>
     <row r="289" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>286</v>
       </c>
       <c r="B289" s="4"/>
@@ -42429,7 +42076,7 @@
     </row>
     <row r="290" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>287</v>
       </c>
       <c r="B290" s="4"/>
@@ -42444,7 +42091,7 @@
     </row>
     <row r="291" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>288</v>
       </c>
       <c r="B291" s="4"/>
@@ -42459,7 +42106,7 @@
     </row>
     <row r="292" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>289</v>
       </c>
       <c r="B292" s="4"/>
@@ -42474,7 +42121,7 @@
     </row>
     <row r="293" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="B293" s="4"/>
@@ -42489,7 +42136,7 @@
     </row>
     <row r="294" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="B294" s="4"/>
@@ -42504,7 +42151,7 @@
     </row>
     <row r="295" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="B295" s="4"/>
@@ -42519,7 +42166,7 @@
     </row>
     <row r="296" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="B296" s="4"/>
@@ -42534,7 +42181,7 @@
     </row>
     <row r="297" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>294</v>
       </c>
       <c r="B297" s="4"/>
@@ -42549,7 +42196,7 @@
     </row>
     <row r="298" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>295</v>
       </c>
       <c r="B298" s="4"/>
@@ -42564,7 +42211,7 @@
     </row>
     <row r="299" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>296</v>
       </c>
       <c r="B299" s="4"/>
@@ -42579,7 +42226,7 @@
     </row>
     <row r="300" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>297</v>
       </c>
       <c r="B300" s="4"/>
@@ -42594,7 +42241,7 @@
     </row>
     <row r="301" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>298</v>
       </c>
       <c r="B301" s="4"/>
@@ -42609,7 +42256,7 @@
     </row>
     <row r="302" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>299</v>
       </c>
       <c r="B302" s="4"/>
@@ -42624,7 +42271,7 @@
     </row>
     <row r="303" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="B303" s="4"/>
@@ -42639,7 +42286,7 @@
     </row>
     <row r="304" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>301</v>
       </c>
       <c r="B304" s="4"/>
@@ -42654,7 +42301,7 @@
     </row>
     <row r="305" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>302</v>
       </c>
       <c r="B305" s="4"/>
@@ -42669,7 +42316,7 @@
     </row>
     <row r="306" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>303</v>
       </c>
       <c r="B306" s="4"/>
@@ -42684,7 +42331,7 @@
     </row>
     <row r="307" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>304</v>
       </c>
       <c r="B307" s="4"/>
@@ -42699,7 +42346,7 @@
     </row>
     <row r="308" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>305</v>
       </c>
       <c r="B308" s="4"/>
@@ -42714,7 +42361,7 @@
     </row>
     <row r="309" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
       <c r="B309" s="4"/>
@@ -42729,7 +42376,7 @@
     </row>
     <row r="310" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>307</v>
       </c>
       <c r="B310" s="4"/>
@@ -42744,7 +42391,7 @@
     </row>
     <row r="311" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>308</v>
       </c>
       <c r="B311" s="4"/>
@@ -42759,7 +42406,7 @@
     </row>
     <row r="312" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>309</v>
       </c>
       <c r="B312" s="4"/>
@@ -42774,7 +42421,7 @@
     </row>
     <row r="313" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
-        <f t="shared" ref="A313:A376" si="5">ROW()-3</f>
+        <f t="shared" ref="A313:A376" si="4">ROW()-3</f>
         <v>310</v>
       </c>
       <c r="B313" s="4"/>
@@ -42789,7 +42436,7 @@
     </row>
     <row r="314" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>311</v>
       </c>
       <c r="B314" s="4"/>
@@ -42804,7 +42451,7 @@
     </row>
     <row r="315" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="B315" s="4"/>
@@ -42819,7 +42466,7 @@
     </row>
     <row r="316" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="B316" s="4"/>
@@ -42834,7 +42481,7 @@
     </row>
     <row r="317" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="B317" s="4"/>
@@ -42849,7 +42496,7 @@
     </row>
     <row r="318" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="B318" s="4"/>
@@ -42864,7 +42511,7 @@
     </row>
     <row r="319" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
       <c r="B319" s="4"/>
@@ -42879,7 +42526,7 @@
     </row>
     <row r="320" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="B320" s="4"/>
@@ -42894,7 +42541,7 @@
     </row>
     <row r="321" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
       <c r="B321" s="4"/>
@@ -42909,7 +42556,7 @@
     </row>
     <row r="322" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="B322" s="4"/>
@@ -42924,7 +42571,7 @@
     </row>
     <row r="323" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="B323" s="4"/>
@@ -42939,7 +42586,7 @@
     </row>
     <row r="324" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>321</v>
       </c>
       <c r="B324" s="4"/>
@@ -42954,7 +42601,7 @@
     </row>
     <row r="325" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>322</v>
       </c>
       <c r="B325" s="4"/>
@@ -42969,7 +42616,7 @@
     </row>
     <row r="326" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>323</v>
       </c>
       <c r="B326" s="4"/>
@@ -42984,7 +42631,7 @@
     </row>
     <row r="327" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
       <c r="B327" s="4"/>
@@ -42999,7 +42646,7 @@
     </row>
     <row r="328" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>325</v>
       </c>
       <c r="B328" s="4"/>
@@ -43014,7 +42661,7 @@
     </row>
     <row r="329" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>326</v>
       </c>
       <c r="B329" s="4"/>
@@ -43029,7 +42676,7 @@
     </row>
     <row r="330" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>327</v>
       </c>
       <c r="B330" s="4"/>
@@ -43044,7 +42691,7 @@
     </row>
     <row r="331" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>328</v>
       </c>
       <c r="B331" s="4"/>
@@ -43059,7 +42706,7 @@
     </row>
     <row r="332" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>329</v>
       </c>
       <c r="B332" s="4"/>
@@ -43074,7 +42721,7 @@
     </row>
     <row r="333" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="B333" s="4"/>
@@ -43089,7 +42736,7 @@
     </row>
     <row r="334" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>331</v>
       </c>
       <c r="B334" s="4"/>
@@ -43104,7 +42751,7 @@
     </row>
     <row r="335" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>332</v>
       </c>
       <c r="B335" s="4"/>
@@ -43119,7 +42766,7 @@
     </row>
     <row r="336" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>333</v>
       </c>
       <c r="B336" s="4"/>
@@ -43134,7 +42781,7 @@
     </row>
     <row r="337" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>334</v>
       </c>
       <c r="B337" s="4"/>
@@ -43149,7 +42796,7 @@
     </row>
     <row r="338" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>335</v>
       </c>
       <c r="B338" s="4"/>
@@ -43164,7 +42811,7 @@
     </row>
     <row r="339" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>336</v>
       </c>
       <c r="B339" s="4"/>
@@ -43179,7 +42826,7 @@
     </row>
     <row r="340" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>337</v>
       </c>
       <c r="B340" s="4"/>
@@ -43194,7 +42841,7 @@
     </row>
     <row r="341" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
       <c r="B341" s="4"/>
@@ -43209,7 +42856,7 @@
     </row>
     <row r="342" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>339</v>
       </c>
       <c r="B342" s="4"/>
@@ -43224,7 +42871,7 @@
     </row>
     <row r="343" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>340</v>
       </c>
       <c r="B343" s="4"/>
@@ -43239,7 +42886,7 @@
     </row>
     <row r="344" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>341</v>
       </c>
       <c r="B344" s="4"/>
@@ -43254,7 +42901,7 @@
     </row>
     <row r="345" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>342</v>
       </c>
       <c r="B345" s="4"/>
@@ -43269,7 +42916,7 @@
     </row>
     <row r="346" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>343</v>
       </c>
       <c r="B346" s="4"/>
@@ -43284,7 +42931,7 @@
     </row>
     <row r="347" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>344</v>
       </c>
       <c r="B347" s="4"/>
@@ -43299,7 +42946,7 @@
     </row>
     <row r="348" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>345</v>
       </c>
       <c r="B348" s="4"/>
@@ -43314,7 +42961,7 @@
     </row>
     <row r="349" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>346</v>
       </c>
       <c r="B349" s="4"/>
@@ -43329,7 +42976,7 @@
     </row>
     <row r="350" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>347</v>
       </c>
       <c r="B350" s="4"/>
@@ -43344,7 +42991,7 @@
     </row>
     <row r="351" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>348</v>
       </c>
       <c r="B351" s="4"/>
@@ -43359,7 +43006,7 @@
     </row>
     <row r="352" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>349</v>
       </c>
       <c r="B352" s="4"/>
@@ -43374,7 +43021,7 @@
     </row>
     <row r="353" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="B353" s="4"/>
@@ -43389,7 +43036,7 @@
     </row>
     <row r="354" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>351</v>
       </c>
       <c r="B354" s="4"/>
@@ -43404,7 +43051,7 @@
     </row>
     <row r="355" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>352</v>
       </c>
       <c r="B355" s="4"/>
@@ -43419,7 +43066,7 @@
     </row>
     <row r="356" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>353</v>
       </c>
       <c r="B356" s="4"/>
@@ -43434,7 +43081,7 @@
     </row>
     <row r="357" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>354</v>
       </c>
       <c r="B357" s="4"/>
@@ -43449,7 +43096,7 @@
     </row>
     <row r="358" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355</v>
       </c>
       <c r="B358" s="4"/>
@@ -43464,7 +43111,7 @@
     </row>
     <row r="359" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>356</v>
       </c>
       <c r="B359" s="4"/>
@@ -43479,7 +43126,7 @@
     </row>
     <row r="360" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>357</v>
       </c>
       <c r="B360" s="4"/>
@@ -43494,7 +43141,7 @@
     </row>
     <row r="361" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>358</v>
       </c>
       <c r="B361" s="4"/>
@@ -43509,7 +43156,7 @@
     </row>
     <row r="362" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>359</v>
       </c>
       <c r="B362" s="4"/>
@@ -43524,7 +43171,7 @@
     </row>
     <row r="363" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
       <c r="B363" s="4"/>
@@ -43539,7 +43186,7 @@
     </row>
     <row r="364" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
       <c r="B364" s="4"/>
@@ -43554,7 +43201,7 @@
     </row>
     <row r="365" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>362</v>
       </c>
       <c r="B365" s="4"/>
@@ -43569,7 +43216,7 @@
     </row>
     <row r="366" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>363</v>
       </c>
       <c r="B366" s="4"/>
@@ -43584,7 +43231,7 @@
     </row>
     <row r="367" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
       <c r="B367" s="4"/>
@@ -43599,7 +43246,7 @@
     </row>
     <row r="368" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>365</v>
       </c>
       <c r="B368" s="4"/>
@@ -43614,7 +43261,7 @@
     </row>
     <row r="369" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>366</v>
       </c>
       <c r="B369" s="4"/>
@@ -43629,7 +43276,7 @@
     </row>
     <row r="370" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>367</v>
       </c>
       <c r="B370" s="4"/>
@@ -43644,7 +43291,7 @@
     </row>
     <row r="371" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>368</v>
       </c>
       <c r="B371" s="4"/>
@@ -43659,7 +43306,7 @@
     </row>
     <row r="372" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>369</v>
       </c>
       <c r="B372" s="4"/>
@@ -43674,7 +43321,7 @@
     </row>
     <row r="373" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>370</v>
       </c>
       <c r="B373" s="4"/>
@@ -43689,7 +43336,7 @@
     </row>
     <row r="374" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>371</v>
       </c>
       <c r="B374" s="4"/>
@@ -43704,7 +43351,7 @@
     </row>
     <row r="375" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>372</v>
       </c>
       <c r="B375" s="4"/>
@@ -43719,7 +43366,7 @@
     </row>
     <row r="376" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>373</v>
       </c>
       <c r="B376" s="4"/>
@@ -43734,7 +43381,7 @@
     </row>
     <row r="377" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
-        <f t="shared" ref="A377:A440" si="6">ROW()-3</f>
+        <f t="shared" ref="A377:A440" si="5">ROW()-3</f>
         <v>374</v>
       </c>
       <c r="B377" s="4"/>
@@ -43749,7 +43396,7 @@
     </row>
     <row r="378" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="B378" s="4"/>
@@ -43764,7 +43411,7 @@
     </row>
     <row r="379" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>376</v>
       </c>
       <c r="B379" s="4"/>
@@ -43779,7 +43426,7 @@
     </row>
     <row r="380" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>377</v>
       </c>
       <c r="B380" s="4"/>
@@ -43794,7 +43441,7 @@
     </row>
     <row r="381" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
       <c r="B381" s="4"/>
@@ -43809,7 +43456,7 @@
     </row>
     <row r="382" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>379</v>
       </c>
       <c r="B382" s="4"/>
@@ -43824,7 +43471,7 @@
     </row>
     <row r="383" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="B383" s="4"/>
@@ -43839,7 +43486,7 @@
     </row>
     <row r="384" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
       <c r="B384" s="4"/>
@@ -43854,7 +43501,7 @@
     </row>
     <row r="385" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>382</v>
       </c>
       <c r="B385" s="4"/>
@@ -43869,7 +43516,7 @@
     </row>
     <row r="386" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>383</v>
       </c>
       <c r="B386" s="4"/>
@@ -43884,7 +43531,7 @@
     </row>
     <row r="387" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="B387" s="4"/>
@@ -43899,7 +43546,7 @@
     </row>
     <row r="388" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>385</v>
       </c>
       <c r="B388" s="4"/>
@@ -43914,7 +43561,7 @@
     </row>
     <row r="389" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>386</v>
       </c>
       <c r="B389" s="4"/>
@@ -43929,7 +43576,7 @@
     </row>
     <row r="390" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>387</v>
       </c>
       <c r="B390" s="4"/>
@@ -43944,7 +43591,7 @@
     </row>
     <row r="391" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>388</v>
       </c>
       <c r="B391" s="4"/>
@@ -43959,7 +43606,7 @@
     </row>
     <row r="392" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>389</v>
       </c>
       <c r="B392" s="4"/>
@@ -43974,7 +43621,7 @@
     </row>
     <row r="393" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>390</v>
       </c>
       <c r="B393" s="4"/>
@@ -43989,7 +43636,7 @@
     </row>
     <row r="394" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>391</v>
       </c>
       <c r="B394" s="4"/>
@@ -44004,7 +43651,7 @@
     </row>
     <row r="395" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>392</v>
       </c>
       <c r="B395" s="4"/>
@@ -44019,7 +43666,7 @@
     </row>
     <row r="396" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A396" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>393</v>
       </c>
       <c r="B396" s="4"/>
@@ -44034,7 +43681,7 @@
     </row>
     <row r="397" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>394</v>
       </c>
       <c r="B397" s="4"/>
@@ -44049,7 +43696,7 @@
     </row>
     <row r="398" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>395</v>
       </c>
       <c r="B398" s="4"/>
@@ -44064,7 +43711,7 @@
     </row>
     <row r="399" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>396</v>
       </c>
       <c r="B399" s="4"/>
@@ -44079,7 +43726,7 @@
     </row>
     <row r="400" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>397</v>
       </c>
       <c r="B400" s="4"/>
@@ -44094,7 +43741,7 @@
     </row>
     <row r="401" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>398</v>
       </c>
       <c r="B401" s="4"/>
@@ -44109,7 +43756,7 @@
     </row>
     <row r="402" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>399</v>
       </c>
       <c r="B402" s="4"/>
@@ -44124,7 +43771,7 @@
     </row>
     <row r="403" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="B403" s="4"/>
@@ -44139,7 +43786,7 @@
     </row>
     <row r="404" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>401</v>
       </c>
       <c r="B404" s="4"/>
@@ -44154,7 +43801,7 @@
     </row>
     <row r="405" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>402</v>
       </c>
       <c r="B405" s="4"/>
@@ -44169,7 +43816,7 @@
     </row>
     <row r="406" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>403</v>
       </c>
       <c r="B406" s="4"/>
@@ -44184,7 +43831,7 @@
     </row>
     <row r="407" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>404</v>
       </c>
       <c r="B407" s="4"/>
@@ -44199,7 +43846,7 @@
     </row>
     <row r="408" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>405</v>
       </c>
       <c r="B408" s="4"/>
@@ -44214,7 +43861,7 @@
     </row>
     <row r="409" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>406</v>
       </c>
       <c r="B409" s="4"/>
@@ -44229,7 +43876,7 @@
     </row>
     <row r="410" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>407</v>
       </c>
       <c r="B410" s="4"/>
@@ -44244,7 +43891,7 @@
     </row>
     <row r="411" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>408</v>
       </c>
       <c r="B411" s="4"/>
@@ -44259,7 +43906,7 @@
     </row>
     <row r="412" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>409</v>
       </c>
       <c r="B412" s="4"/>
@@ -44274,7 +43921,7 @@
     </row>
     <row r="413" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="B413" s="4"/>
@@ -44289,7 +43936,7 @@
     </row>
     <row r="414" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>411</v>
       </c>
       <c r="B414" s="4"/>
@@ -44304,7 +43951,7 @@
     </row>
     <row r="415" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>412</v>
       </c>
       <c r="B415" s="4"/>
@@ -44319,7 +43966,7 @@
     </row>
     <row r="416" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>413</v>
       </c>
       <c r="B416" s="4"/>
@@ -44334,7 +43981,7 @@
     </row>
     <row r="417" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>414</v>
       </c>
       <c r="B417" s="4"/>
@@ -44349,7 +43996,7 @@
     </row>
     <row r="418" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>415</v>
       </c>
       <c r="B418" s="4"/>
@@ -44364,7 +44011,7 @@
     </row>
     <row r="419" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A419" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="B419" s="4"/>
@@ -44379,7 +44026,7 @@
     </row>
     <row r="420" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>417</v>
       </c>
       <c r="B420" s="4"/>
@@ -44394,7 +44041,7 @@
     </row>
     <row r="421" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>418</v>
       </c>
       <c r="B421" s="4"/>
@@ -44409,7 +44056,7 @@
     </row>
     <row r="422" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>419</v>
       </c>
       <c r="B422" s="4"/>
@@ -44424,7 +44071,7 @@
     </row>
     <row r="423" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="B423" s="4"/>
@@ -44439,7 +44086,7 @@
     </row>
     <row r="424" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>421</v>
       </c>
       <c r="B424" s="4"/>
@@ -44454,7 +44101,7 @@
     </row>
     <row r="425" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>422</v>
       </c>
       <c r="B425" s="4"/>
@@ -44469,7 +44116,7 @@
     </row>
     <row r="426" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>423</v>
       </c>
       <c r="B426" s="4"/>
@@ -44484,7 +44131,7 @@
     </row>
     <row r="427" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>424</v>
       </c>
       <c r="B427" s="4"/>
@@ -44499,7 +44146,7 @@
     </row>
     <row r="428" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>425</v>
       </c>
       <c r="B428" s="4"/>
@@ -44514,7 +44161,7 @@
     </row>
     <row r="429" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>426</v>
       </c>
       <c r="B429" s="4"/>
@@ -44529,7 +44176,7 @@
     </row>
     <row r="430" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>427</v>
       </c>
       <c r="B430" s="4"/>
@@ -44544,7 +44191,7 @@
     </row>
     <row r="431" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="B431" s="4"/>
@@ -44559,7 +44206,7 @@
     </row>
     <row r="432" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>429</v>
       </c>
       <c r="B432" s="4"/>
@@ -44574,7 +44221,7 @@
     </row>
     <row r="433" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>430</v>
       </c>
       <c r="B433" s="4"/>
@@ -44589,7 +44236,7 @@
     </row>
     <row r="434" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>431</v>
       </c>
       <c r="B434" s="4"/>
@@ -44604,7 +44251,7 @@
     </row>
     <row r="435" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>432</v>
       </c>
       <c r="B435" s="4"/>
@@ -44619,7 +44266,7 @@
     </row>
     <row r="436" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A436" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>433</v>
       </c>
       <c r="B436" s="4"/>
@@ -44634,7 +44281,7 @@
     </row>
     <row r="437" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A437" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>434</v>
       </c>
       <c r="B437" s="4"/>
@@ -44649,7 +44296,7 @@
     </row>
     <row r="438" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>435</v>
       </c>
       <c r="B438" s="4"/>
@@ -44664,7 +44311,7 @@
     </row>
     <row r="439" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A439" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>436</v>
       </c>
       <c r="B439" s="4"/>
@@ -44679,7 +44326,7 @@
     </row>
     <row r="440" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A440" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>437</v>
       </c>
       <c r="B440" s="4"/>
@@ -44694,7 +44341,7 @@
     </row>
     <row r="441" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A441" s="4">
-        <f t="shared" ref="A441:A489" si="7">ROW()-3</f>
+        <f t="shared" ref="A441:A489" si="6">ROW()-3</f>
         <v>438</v>
       </c>
       <c r="B441" s="4"/>
@@ -44709,7 +44356,7 @@
     </row>
     <row r="442" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>439</v>
       </c>
       <c r="B442" s="4"/>
@@ -44724,7 +44371,7 @@
     </row>
     <row r="443" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A443" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="B443" s="4"/>
@@ -44739,7 +44386,7 @@
     </row>
     <row r="444" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
       <c r="B444" s="4"/>
@@ -44754,7 +44401,7 @@
     </row>
     <row r="445" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A445" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>442</v>
       </c>
       <c r="B445" s="4"/>
@@ -44769,7 +44416,7 @@
     </row>
     <row r="446" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>443</v>
       </c>
       <c r="B446" s="4"/>
@@ -44784,7 +44431,7 @@
     </row>
     <row r="447" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A447" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>444</v>
       </c>
       <c r="B447" s="4"/>
@@ -44799,7 +44446,7 @@
     </row>
     <row r="448" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A448" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>445</v>
       </c>
       <c r="B448" s="4"/>
@@ -44814,7 +44461,7 @@
     </row>
     <row r="449" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A449" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>446</v>
       </c>
       <c r="B449" s="4"/>
@@ -44829,7 +44476,7 @@
     </row>
     <row r="450" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A450" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>447</v>
       </c>
       <c r="B450" s="4"/>
@@ -44844,7 +44491,7 @@
     </row>
     <row r="451" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A451" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>448</v>
       </c>
       <c r="B451" s="4"/>
@@ -44859,7 +44506,7 @@
     </row>
     <row r="452" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A452" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>449</v>
       </c>
       <c r="B452" s="4"/>
@@ -44874,7 +44521,7 @@
     </row>
     <row r="453" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A453" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="B453" s="4"/>
@@ -44889,7 +44536,7 @@
     </row>
     <row r="454" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A454" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>451</v>
       </c>
       <c r="B454" s="4"/>
@@ -44904,7 +44551,7 @@
     </row>
     <row r="455" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A455" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>452</v>
       </c>
       <c r="B455" s="4"/>
@@ -44919,7 +44566,7 @@
     </row>
     <row r="456" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A456" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>453</v>
       </c>
       <c r="B456" s="4"/>
@@ -44934,7 +44581,7 @@
     </row>
     <row r="457" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A457" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>454</v>
       </c>
       <c r="B457" s="4"/>
@@ -44949,7 +44596,7 @@
     </row>
     <row r="458" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A458" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>455</v>
       </c>
       <c r="B458" s="4"/>
@@ -44964,7 +44611,7 @@
     </row>
     <row r="459" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A459" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>456</v>
       </c>
       <c r="B459" s="4"/>
@@ -44979,7 +44626,7 @@
     </row>
     <row r="460" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A460" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>457</v>
       </c>
       <c r="B460" s="4"/>
@@ -44994,7 +44641,7 @@
     </row>
     <row r="461" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A461" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>458</v>
       </c>
       <c r="B461" s="4"/>
@@ -45009,7 +44656,7 @@
     </row>
     <row r="462" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A462" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>459</v>
       </c>
       <c r="B462" s="4"/>
@@ -45024,7 +44671,7 @@
     </row>
     <row r="463" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A463" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>460</v>
       </c>
       <c r="B463" s="4"/>
@@ -45039,7 +44686,7 @@
     </row>
     <row r="464" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A464" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="B464" s="4"/>
@@ -45054,7 +44701,7 @@
     </row>
     <row r="465" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A465" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
       <c r="B465" s="4"/>
@@ -45069,7 +44716,7 @@
     </row>
     <row r="466" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A466" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>463</v>
       </c>
       <c r="B466" s="4"/>
@@ -45084,7 +44731,7 @@
     </row>
     <row r="467" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A467" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>464</v>
       </c>
       <c r="B467" s="4"/>
@@ -45099,7 +44746,7 @@
     </row>
     <row r="468" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A468" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>465</v>
       </c>
       <c r="B468" s="4"/>
@@ -45114,7 +44761,7 @@
     </row>
     <row r="469" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A469" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>466</v>
       </c>
       <c r="B469" s="4"/>
@@ -45129,7 +44776,7 @@
     </row>
     <row r="470" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A470" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>467</v>
       </c>
       <c r="B470" s="4"/>
@@ -45144,7 +44791,7 @@
     </row>
     <row r="471" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A471" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>468</v>
       </c>
       <c r="B471" s="4"/>
@@ -45159,7 +44806,7 @@
     </row>
     <row r="472" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A472" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>469</v>
       </c>
       <c r="B472" s="4"/>
@@ -45174,7 +44821,7 @@
     </row>
     <row r="473" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A473" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>470</v>
       </c>
       <c r="B473" s="4"/>
@@ -45189,7 +44836,7 @@
     </row>
     <row r="474" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A474" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>471</v>
       </c>
       <c r="B474" s="4"/>
@@ -45204,7 +44851,7 @@
     </row>
     <row r="475" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A475" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>472</v>
       </c>
       <c r="B475" s="4"/>
@@ -45219,7 +44866,7 @@
     </row>
     <row r="476" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A476" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>473</v>
       </c>
       <c r="B476" s="4"/>
@@ -45234,7 +44881,7 @@
     </row>
     <row r="477" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A477" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>474</v>
       </c>
       <c r="B477" s="4"/>
@@ -45249,7 +44896,7 @@
     </row>
     <row r="478" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A478" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>475</v>
       </c>
       <c r="B478" s="4"/>
@@ -45264,7 +44911,7 @@
     </row>
     <row r="479" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A479" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>476</v>
       </c>
       <c r="B479" s="4"/>
@@ -45279,7 +44926,7 @@
     </row>
     <row r="480" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A480" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>477</v>
       </c>
       <c r="B480" s="4"/>
@@ -45294,7 +44941,7 @@
     </row>
     <row r="481" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A481" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>478</v>
       </c>
       <c r="B481" s="4"/>
@@ -45309,7 +44956,7 @@
     </row>
     <row r="482" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A482" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>479</v>
       </c>
       <c r="B482" s="4"/>
@@ -45324,7 +44971,7 @@
     </row>
     <row r="483" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A483" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="B483" s="4"/>
@@ -45339,7 +44986,7 @@
     </row>
     <row r="484" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A484" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>481</v>
       </c>
       <c r="B484" s="4"/>
@@ -45354,7 +45001,7 @@
     </row>
     <row r="485" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A485" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>482</v>
       </c>
       <c r="B485" s="4"/>
@@ -45369,7 +45016,7 @@
     </row>
     <row r="486" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A486" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>483</v>
       </c>
       <c r="B486" s="4"/>
@@ -45384,7 +45031,7 @@
     </row>
     <row r="487" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A487" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>484</v>
       </c>
       <c r="B487" s="4"/>
@@ -45399,7 +45046,7 @@
     </row>
     <row r="488" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A488" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>485</v>
       </c>
       <c r="B488" s="4"/>
@@ -45414,7 +45061,7 @@
     </row>
     <row r="489" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A489" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>486</v>
       </c>
       <c r="B489" s="4"/>

--- a/02.Design Document/Bug_List.xlsx
+++ b/02.Design Document/Bug_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FB390-08F0-294D-B921-EEC63D439A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CCDB3-3F9C-A843-8486-9B2618A37203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="22100" windowWidth="28620" windowHeight="15760" activeTab="5" xr2:uid="{7E3708B7-2F03-7340-966D-388217F224A7}"/>
+    <workbookView xWindow="6080" yWindow="500" windowWidth="32320" windowHeight="21100" activeTab="5" xr2:uid="{7E3708B7-2F03-7340-966D-388217F224A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard(Admin)" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="191">
   <si>
     <t>No</t>
   </si>
@@ -500,9 +500,6 @@
     <t>Change Ajax</t>
   </si>
   <si>
-    <t>Add Table fo two Chart</t>
-  </si>
-  <si>
     <t>Limit 6 month duration</t>
   </si>
   <si>
@@ -636,6 +633,15 @@
   <si>
     <t xml:space="preserve">add checkbox for ad valid </t>
   </si>
+  <si>
+    <t>Add Table for two Chart</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>But right</t>
+  </si>
 </sst>
 </file>
 
@@ -743,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -817,6 +823,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,7 +1146,9 @@
   </sheetPr>
   <dimension ref="A3:L476"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1215,7 +1226,9 @@
         <v>97</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -1240,7 +1253,9 @@
         <v>97</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -1265,7 +1280,9 @@
         <v>97</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -1290,7 +1307,9 @@
         <v>97</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -1315,7 +1334,9 @@
         <v>97</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -1340,7 +1361,9 @@
         <v>97</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -1365,7 +1388,9 @@
         <v>97</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -1390,7 +1415,9 @@
         <v>97</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -1417,7 +1444,9 @@
         <v>97</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -1442,7 +1471,9 @@
         <v>97</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -1467,7 +1498,9 @@
         <v>97</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -1492,7 +1525,9 @@
         <v>97</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -1517,7 +1552,9 @@
         <v>97</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -1542,7 +1579,9 @@
         <v>97</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="26" x14ac:dyDescent="0.3">
@@ -8442,7 +8481,9 @@
   </sheetPr>
   <dimension ref="A3:K476"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8519,7 +8560,9 @@
         <v>97</v>
       </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8544,7 +8587,9 @@
         <v>97</v>
       </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8569,7 +8614,9 @@
         <v>97</v>
       </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8594,7 +8641,9 @@
         <v>97</v>
       </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8619,7 +8668,9 @@
         <v>97</v>
       </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8644,7 +8695,9 @@
         <v>97</v>
       </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8669,7 +8722,9 @@
         <v>97</v>
       </c>
       <c r="H10" s="27"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8694,7 +8749,9 @@
         <v>97</v>
       </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8719,7 +8776,9 @@
         <v>97</v>
       </c>
       <c r="H12" s="27"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8744,7 +8803,9 @@
         <v>97</v>
       </c>
       <c r="H13" s="27"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8769,7 +8830,9 @@
         <v>97</v>
       </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="54" x14ac:dyDescent="0.3">
@@ -8794,7 +8857,9 @@
         <v>97</v>
       </c>
       <c r="H15" s="27"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -8819,7 +8884,9 @@
         <v>97</v>
       </c>
       <c r="H16" s="27"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="26" x14ac:dyDescent="0.3">
@@ -8844,7 +8911,9 @@
         <v>97</v>
       </c>
       <c r="H17" s="27"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="26" x14ac:dyDescent="0.3">
@@ -8869,7 +8938,9 @@
         <v>97</v>
       </c>
       <c r="H18" s="27"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="26" x14ac:dyDescent="0.3">
@@ -8894,7 +8965,9 @@
         <v>97</v>
       </c>
       <c r="H19" s="27"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="26" x14ac:dyDescent="0.3">
@@ -15764,7 +15837,9 @@
   </sheetPr>
   <dimension ref="A3:K476"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15841,7 +15916,9 @@
         <v>97</v>
       </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -15866,7 +15943,9 @@
         <v>97</v>
       </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -15891,7 +15970,9 @@
         <v>97</v>
       </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -15916,7 +15997,9 @@
         <v>97</v>
       </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -15941,7 +16024,9 @@
         <v>97</v>
       </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -15966,7 +16051,9 @@
         <v>97</v>
       </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.3">
@@ -15991,7 +16078,9 @@
         <v>97</v>
       </c>
       <c r="H10" s="27"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -16016,7 +16105,9 @@
         <v>97</v>
       </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -16041,7 +16132,9 @@
         <v>97</v>
       </c>
       <c r="H12" s="27"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.3">
@@ -16066,7 +16159,9 @@
         <v>97</v>
       </c>
       <c r="H13" s="27"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -16091,7 +16186,9 @@
         <v>97</v>
       </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -16116,7 +16213,9 @@
         <v>97</v>
       </c>
       <c r="H15" s="27"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.3">
@@ -16141,7 +16240,9 @@
         <v>97</v>
       </c>
       <c r="H16" s="27"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="26" x14ac:dyDescent="0.3">
@@ -16166,7 +16267,9 @@
         <v>97</v>
       </c>
       <c r="H17" s="27"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="26" x14ac:dyDescent="0.3">
@@ -16191,7 +16294,9 @@
         <v>97</v>
       </c>
       <c r="H18" s="27"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="26" x14ac:dyDescent="0.3">
@@ -23076,7 +23181,9 @@
   </sheetPr>
   <dimension ref="A1:L478"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23368,7 +23475,7 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="E12" s="21">
         <v>44591</v>
@@ -23393,7 +23500,7 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="21">
         <v>44591</v>
@@ -23418,7 +23525,7 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="21">
         <v>44591</v>
@@ -23443,7 +23550,7 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="21">
         <v>44591</v>
@@ -30364,7 +30471,9 @@
   </sheetPr>
   <dimension ref="A1:L474"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30768,7 +30877,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="21">
         <v>44591</v>
@@ -30795,7 +30904,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="21">
         <v>44591</v>
@@ -30819,10 +30928,10 @@
         <v>69</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" s="21">
         <v>44591</v>
@@ -30846,10 +30955,10 @@
         <v>69</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="21">
         <v>44591</v>
@@ -30870,13 +30979,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="21">
         <v>44591</v>
@@ -30901,7 +31010,7 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="21">
         <v>44591</v>
@@ -30922,13 +31031,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E22" s="21">
         <v>44591</v>
@@ -30949,13 +31058,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="21">
         <v>44591</v>
@@ -37747,8 +37856,8 @@
   </sheetPr>
   <dimension ref="A3:L489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -37807,7 +37916,7 @@
     </row>
     <row r="4" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A56" si="0">ROW()-3</f>
+        <f t="shared" ref="A4:A39" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -38086,7 +38195,7 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="21">
         <v>44590</v>
@@ -38098,7 +38207,9 @@
         <v>38</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.3">
@@ -38111,7 +38222,7 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" s="21">
         <v>44590</v>
@@ -38123,7 +38234,9 @@
         <v>38</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -38136,7 +38249,7 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="21">
         <v>44590</v>
@@ -38148,7 +38261,9 @@
         <v>38</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38161,7 +38276,7 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="21">
         <v>44590</v>
@@ -38173,7 +38288,9 @@
         <v>38</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38182,11 +38299,11 @@
         <v>15</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="21">
         <v>44590</v>
@@ -38198,7 +38315,9 @@
         <v>38</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="34" t="s">
+        <v>11</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38207,11 +38326,11 @@
         <v>16</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="21">
         <v>44590</v>
@@ -38223,7 +38342,9 @@
         <v>38</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38232,11 +38353,11 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" s="21">
         <v>44590</v>
@@ -38248,7 +38369,9 @@
         <v>38</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="18"/>
+      <c r="I20" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -38257,11 +38380,11 @@
         <v>18</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="21">
         <v>44590</v>
@@ -38273,7 +38396,9 @@
         <v>38</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38282,11 +38407,11 @@
         <v>19</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" s="21">
         <v>44590</v>
@@ -38298,7 +38423,9 @@
         <v>38</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38307,11 +38434,11 @@
         <v>20</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="21">
         <v>44590</v>
@@ -38323,7 +38450,9 @@
         <v>38</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -38332,11 +38461,11 @@
         <v>21</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="21">
         <v>44590</v>
@@ -38348,7 +38477,9 @@
         <v>38</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38357,11 +38488,11 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" s="21">
         <v>44590</v>
@@ -38373,7 +38504,9 @@
         <v>38</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38382,11 +38515,11 @@
         <v>23</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" s="21">
         <v>44590</v>
@@ -38398,7 +38531,9 @@
         <v>38</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="18"/>
+      <c r="I26" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38407,11 +38542,11 @@
         <v>24</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" s="21">
         <v>44590</v>
@@ -38423,7 +38558,9 @@
         <v>38</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38432,11 +38569,11 @@
         <v>25</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E28" s="21">
         <v>44590</v>
@@ -38448,7 +38585,9 @@
         <v>38</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38457,11 +38596,11 @@
         <v>26</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E29" s="21">
         <v>44590</v>
@@ -38473,7 +38612,9 @@
         <v>38</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="18"/>
+      <c r="I29" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38482,11 +38623,11 @@
         <v>27</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="21">
         <v>44590</v>
@@ -38498,7 +38639,9 @@
         <v>38</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="18"/>
+      <c r="I30" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38507,11 +38650,11 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="21">
         <v>44590</v>
@@ -38523,7 +38666,9 @@
         <v>38</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="18"/>
+      <c r="I31" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38532,11 +38677,11 @@
         <v>29</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32" s="21">
         <v>44590</v>
@@ -38548,7 +38693,9 @@
         <v>38</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="18"/>
+      <c r="I32" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -38557,11 +38704,11 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="21">
         <v>44590</v>
@@ -38573,8 +38720,12 @@
         <v>38</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="6"/>
+      <c r="I33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
@@ -38582,11 +38733,11 @@
         <v>31</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" s="21">
         <v>44590</v>
@@ -38598,7 +38749,9 @@
         <v>38</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="18"/>
+      <c r="I34" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38607,11 +38760,11 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E35" s="21">
         <v>44590</v>
@@ -38623,7 +38776,9 @@
         <v>38</v>
       </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="18"/>
+      <c r="I35" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38632,11 +38787,11 @@
         <v>33</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E36" s="21">
         <v>44590</v>
@@ -38648,7 +38803,9 @@
         <v>38</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="18"/>
+      <c r="I36" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38657,11 +38814,11 @@
         <v>34</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" s="21">
         <v>44590</v>
@@ -38673,7 +38830,9 @@
         <v>38</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="18"/>
+      <c r="I37" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38682,11 +38841,11 @@
         <v>35</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" s="21">
         <v>44590</v>
@@ -38698,7 +38857,9 @@
         <v>38</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -38707,11 +38868,11 @@
         <v>36</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E39" s="21">
         <v>44590</v>
@@ -38723,7 +38884,9 @@
         <v>38</v>
       </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="18"/>
+      <c r="I39" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10" ht="26" x14ac:dyDescent="0.3">
@@ -40336,7 +40499,7 @@
     </row>
     <row r="174" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <f t="shared" ref="A121:A184" si="1">ROW()-3</f>
+        <f t="shared" ref="A174:A184" si="1">ROW()-3</f>
         <v>171</v>
       </c>
       <c r="B174" s="4"/>
@@ -45086,7 +45249,9 @@
   </sheetPr>
   <dimension ref="A3:L505"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
